--- a/data/trans_dic/P25A$rendimiento-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P25A$rendimiento-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,17 +686,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,94</t>
+          <t>0,0; 11,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,08; 15,03</t>
+          <t>1,12; 13,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,0; 26,32</t>
+          <t>8,91; 26,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,34 +706,34 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,04</t>
+          <t>0,0; 25,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,67; 20,14</t>
+          <t>3,72; 20,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,05</t>
+          <t>0,0; 8,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,62; 13,2</t>
+          <t>2,12; 11,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,16; 20,96</t>
+          <t>8,4; 20,07</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 8,34</t>
+          <t>0,91; 8,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,13</t>
+          <t>0,0; 5,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,15</t>
+          <t>0,0; 8,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,34</t>
+          <t>0,0; 17,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,56</t>
+          <t>0,0; 7,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,3</t>
+          <t>0,0; 21,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,75; 7,36</t>
+          <t>1,36; 7,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,59</t>
+          <t>0,53; 4,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 8,74</t>
+          <t>1,0; 8,69</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,17 +906,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 16,73</t>
+          <t>2,8; 16,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,8</t>
+          <t>0,0; 5,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,67</t>
+          <t>0,0; 9,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -925,7 +926,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,34</t>
+          <t>0,0; 17,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,17 +936,17 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,31; 12,94</t>
+          <t>2,23; 13,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,44</t>
+          <t>0,0; 6,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,22</t>
+          <t>0,0; 5,81</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,04</t>
+          <t>0,0; 9,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,83; 15,31</t>
+          <t>4,06; 15,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,02; 11,72</t>
+          <t>2,1; 11,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,01; 27,74</t>
+          <t>5,09; 27,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,66</t>
+          <t>0,0; 12,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,2; 23,51</t>
+          <t>4,1; 24,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,56; 12,19</t>
+          <t>2,52; 11,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,39; 11,45</t>
+          <t>3,37; 11,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,6; 12,5</t>
+          <t>3,62; 12,68</t>
         </is>
       </c>
     </row>
@@ -1130,22 +1131,22 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,1</t>
+          <t>0,0; 8,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,98; 23,28</t>
+          <t>2,94; 24,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,56</t>
+          <t>0,0; 17,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,88</t>
+          <t>0,0; 22,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1160,19 +1161,19 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,23; 10,44</t>
+          <t>1,23; 10,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,9; 16,29</t>
+          <t>1,87; 16,74</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1235,22 +1236,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,21</t>
+          <t>0,0; 11,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,19</t>
+          <t>0,0; 6,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,75</t>
+          <t>0,0; 18,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,36</t>
+          <t>0,0; 32,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1265,24 +1266,24 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,2; 10,48</t>
+          <t>1,19; 10,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,95</t>
+          <t>0,0; 4,53</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,83</t>
+          <t>0,0; 13,79</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,27</t>
+          <t>0,0; 6,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,91; 8,67</t>
+          <t>2,13; 9,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,86</t>
+          <t>0,71; 7,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,65</t>
+          <t>0,0; 16,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,73</t>
+          <t>0,0; 6,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,18</t>
+          <t>0,0; 7,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,75; 7,41</t>
+          <t>0,77; 7,32</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,84; 7,04</t>
+          <t>1,85; 6,73</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,98; 6,03</t>
+          <t>0,98; 6,53</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,76; 6,9</t>
+          <t>0,6; 5,96</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,75; 7,18</t>
+          <t>0,77; 7,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,32</t>
+          <t>0,0; 5,36</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,12; 11,81</t>
+          <t>1,1; 11,8</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,44; 13,3</t>
+          <t>1,44; 13,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,59</t>
+          <t>0,0; 10,63</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,29; 5,96</t>
+          <t>1,31; 6,35</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,59; 7,42</t>
+          <t>1,26; 7,01</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,64; 5,57</t>
+          <t>0,64; 5,62</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,09; 4,81</t>
+          <t>2,1; 4,88</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,63; 5,33</t>
+          <t>2,44; 5,24</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,42; 7,01</t>
+          <t>3,62; 7,42</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,81; 8,19</t>
+          <t>2,93; 8,42</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,87; 5,98</t>
+          <t>1,78; 5,66</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,92; 7,62</t>
+          <t>2,86; 7,45</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,61; 5,1</t>
+          <t>2,66; 5,01</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,64; 4,93</t>
+          <t>2,56; 4,84</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,63; 6,53</t>
+          <t>3,75; 6,54</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, la disminución del rendimiento</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1849</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4615</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12723</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1790</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5023</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1849</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>6405</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>17746</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5572</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>906; 11288</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7037; 20915</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2005</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10059</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1933; 10803</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5666</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2573; 14526</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>11005; 26285</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>4103</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1761</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>869</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1078</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2080</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4971</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3072</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3841</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1033; 10231</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6990</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5801</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4467</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4517</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6154</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1900; 10159</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>960; 8635</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1017; 8832</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4804</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>916</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>938</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1188</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4804</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2104</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>938</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1786; 10618</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4669</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5634</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1795</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5873</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1755</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1739; 10430</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7533</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5205</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1902</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>9343</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>4745</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>4993</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>4782</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6895</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>10302</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>9527</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6918</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4278; 16536</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1831; 10231</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1918; 10252</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5939</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1833; 10922</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2865; 12859</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5125; 18034</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>4775; 16709</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>984</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3002</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>939</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>939</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2946</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>3002</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1916</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4271</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>932; 7732</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4981</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6034</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1800</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4793</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>952; 7759</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>914; 8172</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1856</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1034</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1796</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1017</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2872</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1034</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1796</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5871</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5202</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 8317</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6198</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1888</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1770</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>854; 7750</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4755</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 8434</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>7517</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>3653</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1864</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>2062</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>3784</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>9533</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>5715</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6288</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3467; 15246</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>901; 9785</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5519</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6353</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6650</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>959; 9155</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>4693; 17116</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>2077; 13796</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>3549</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>4012</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1765</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>2962</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>3394</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>2159</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>6511</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>7406</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>3924</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>831; 8249</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1001; 9248</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>0; 5477</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>797; 8516</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>962; 8861</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>0; 6796</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>2760; 13381</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>2477; 13821</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1063; 9339</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>19983</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>30416</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>30384</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>12643</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>12387</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>16107</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>32626</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>42803</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>46491</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>13128; 30466</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>19923; 42768</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>21916; 44924</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>7348; 21121</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>6864; 21879</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>9618; 25014</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>23317; 43831</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>30754; 58175</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>35259; 61580</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>